--- a/models/cta/results.xlsx
+++ b/models/cta/results.xlsx
@@ -4121,19 +4121,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>194.999948143959</v>
+        <v>108.0001937225461</v>
       </c>
       <c r="E17" t="n">
-        <v>175.9998500347137</v>
+        <v>123.0002380907536</v>
       </c>
       <c r="F17" t="n">
-        <v>148.9996444433928</v>
+        <v>115.0001306086779</v>
       </c>
       <c r="G17" t="n">
-        <v>169.0005417913198</v>
+        <v>130.0001749768853</v>
       </c>
       <c r="H17" t="n">
-        <v>214.0000462532043</v>
+        <v>125.9994925931096</v>
       </c>
     </row>
     <row r="18">

--- a/models/cta/results.xlsx
+++ b/models/cta/results.xlsx
@@ -4121,19 +4121,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>108.0001937225461</v>
+        <v>220.9999831393361</v>
       </c>
       <c r="E17" t="n">
-        <v>123.0002380907536</v>
+        <v>157.9999225214124</v>
       </c>
       <c r="F17" t="n">
-        <v>115.0001306086779</v>
+        <v>185.9996700659394</v>
       </c>
       <c r="G17" t="n">
-        <v>130.0001749768853</v>
+        <v>216.0003874450922</v>
       </c>
       <c r="H17" t="n">
-        <v>125.9994925931096</v>
+        <v>152.9996981844306</v>
       </c>
     </row>
     <row r="18">

--- a/models/cta/results.xlsx
+++ b/models/cta/results.xlsx
@@ -3605,7 +3605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3653,23 +3653,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>p2</t>
+          <t>p1</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>c4</t>
+          <t>c2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3701,7 +3701,7 @@
         <v/>
       </c>
       <c r="H3" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3712,19 +3712,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>c5</t>
+          <t>c4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>p1</t>
+          <t>p2</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>c7</t>
+          <t>c4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3753,19 +3753,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -3776,16 +3776,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>c8</t>
+          <t>c5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>p3</t>
+          <t>p1</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -3803,12 +3803,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>r2</t>
+          <t>r1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>c4</t>
+          <t>c7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3826,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -3835,24 +3835,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>r2</t>
+          <t>r1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>c6</t>
+          <t>c8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>p2</t>
+          <t>p3</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -3872,44 +3872,44 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>c9</t>
+          <t>c4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>p1</t>
+          <t>p2</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>c7</t>
+          <t>c4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>p2</t>
+          <t>p3</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3922,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -3931,17 +3931,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>c9</t>
+          <t>c6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>p3</t>
+          <t>p2</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -3954,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -3963,17 +3963,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>r4</t>
+          <t>r2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>c4</t>
+          <t>c9</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>p2</t>
+          <t>p1</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -3986,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -3995,49 +3995,49 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>r5</t>
+          <t>r3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>c7</t>
+          <t>c6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>p3</t>
+          <t>p2</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>r5</t>
+          <t>r3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>c9</t>
+          <t>c7</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>p2</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -4050,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -4059,7 +4059,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>r5</t>
+          <t>r3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4069,102 +4069,422 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>p3</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v/>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>r4</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>p3</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v/>
+      </c>
+      <c r="E16" t="n">
+        <v/>
+      </c>
+      <c r="F16" t="n">
+        <v/>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>r4</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>p2</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Obj</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>2420</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2426</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2432</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2434</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>mSec</t>
-        </is>
-      </c>
       <c r="D17" t="n">
-        <v>220.9999831393361</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>157.9999225214124</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>185.9996700659394</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>216.0003874450922</v>
+        <v/>
       </c>
       <c r="H17" t="n">
-        <v>152.9996981844306</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>r4</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>c8</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>p2</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v/>
+      </c>
+      <c r="E18" t="n">
+        <v/>
+      </c>
+      <c r="F18" t="n">
+        <v/>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>r5</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>c7</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>p2</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v/>
+      </c>
+      <c r="E19" t="n">
+        <v/>
+      </c>
+      <c r="F19" t="n">
+        <v/>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>r5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>c7</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>p3</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v/>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>r5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>c8</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v/>
+      </c>
+      <c r="E21" t="n">
+        <v/>
+      </c>
+      <c r="F21" t="n">
+        <v/>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>r5</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>c8</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>p1</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v/>
+      </c>
+      <c r="E22" t="n">
+        <v/>
+      </c>
+      <c r="F22" t="n">
+        <v/>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>r5</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>c9</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v/>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>r5</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>c9</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>p2</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v/>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>p2</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v/>
+      </c>
+      <c r="E25" t="n">
+        <v/>
+      </c>
+      <c r="F25" t="n">
+        <v/>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Obj</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2420</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2426</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2432</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2434</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>mSec</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>107.0000231266022</v>
+      </c>
+      <c r="E27" t="n">
+        <v>107.0000231266022</v>
+      </c>
+      <c r="F27" t="n">
+        <v>107.0000231266022</v>
+      </c>
+      <c r="G27" t="n">
+        <v>107.0000231266022</v>
+      </c>
+      <c r="H27" t="n">
+        <v>107.9995650798082</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>Comp</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Cells</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Adjusted</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D28" t="n">
         <v>55</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E28" t="n">
         <v>65</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F28" t="n">
         <v>56</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G28" t="n">
         <v>58</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H28" t="n">
         <v>60</v>
       </c>
     </row>

--- a/models/cta/results.xlsx
+++ b/models/cta/results.xlsx
@@ -3605,7 +3605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3653,23 +3653,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>p1</t>
+          <t>p2</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>c4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3701,7 +3701,7 @@
         <v/>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -3712,19 +3712,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>c4</t>
+          <t>c5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>p2</t>
+          <t>p1</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>c4</t>
+          <t>c7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3753,19 +3753,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3776,16 +3776,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>c5</t>
+          <t>c8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>p1</t>
+          <t>p3</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -3803,12 +3803,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>r1</t>
+          <t>r2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>c7</t>
+          <t>c4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3826,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -3835,24 +3835,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>r1</t>
+          <t>r2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>c8</t>
+          <t>c6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>p3</t>
+          <t>p2</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3872,44 +3872,44 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>c4</t>
+          <t>c9</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>p2</t>
+          <t>p1</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>r2</t>
+          <t>r3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>c4</t>
+          <t>c7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>p3</t>
+          <t>p2</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3922,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -3931,17 +3931,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>r2</t>
+          <t>r3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>c6</t>
+          <t>c9</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>p2</t>
+          <t>p3</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -3954,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -3963,17 +3963,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>r2</t>
+          <t>r4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>c9</t>
+          <t>c4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>p1</t>
+          <t>p2</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -3986,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -3995,49 +3995,49 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r5</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>c6</t>
+          <t>c7</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>p2</t>
+          <t>p3</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r5</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>c7</t>
+          <t>c9</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>p2</t>
+          <t>total</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -4050,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -4059,7 +4059,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r5</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>p3</t>
+          <t>p2</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -4082,409 +4082,89 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>r4</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>c2</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>p3</t>
+          <t>Obj</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v/>
+        <v>2420</v>
       </c>
       <c r="E16" t="n">
-        <v/>
+        <v>2426</v>
       </c>
       <c r="F16" t="n">
-        <v/>
+        <v>2432</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2434</v>
       </c>
       <c r="H16" t="n">
-        <v/>
+        <v>2440</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>r4</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>c4</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>p2</t>
+          <t>mSec</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>108.9997356757522</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>112.0002474635839</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>134.9997706711292</v>
       </c>
       <c r="G17" t="n">
-        <v/>
+        <v>118.0000137537718</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>124.0004086866975</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>r4</t>
+          <t>Comp</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>c8</t>
+          <t>Cells</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>p2</t>
+          <t>Adjusted</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v/>
+        <v>55</v>
       </c>
       <c r="E18" t="n">
-        <v/>
+        <v>65</v>
       </c>
       <c r="F18" t="n">
-        <v/>
+        <v>56</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="H18" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>r5</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>c7</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>p2</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v/>
-      </c>
-      <c r="E19" t="n">
-        <v/>
-      </c>
-      <c r="F19" t="n">
-        <v/>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>r5</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>c7</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>p3</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v/>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>r5</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>c8</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v/>
-      </c>
-      <c r="E21" t="n">
-        <v/>
-      </c>
-      <c r="F21" t="n">
-        <v/>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>r5</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>c8</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>p1</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v/>
-      </c>
-      <c r="E22" t="n">
-        <v/>
-      </c>
-      <c r="F22" t="n">
-        <v/>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>r5</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>c9</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v/>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>r5</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>c9</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>p2</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v/>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>c4</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>p2</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v/>
-      </c>
-      <c r="E25" t="n">
-        <v/>
-      </c>
-      <c r="F25" t="n">
-        <v/>
-      </c>
-      <c r="G25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Obj</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>2420</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2426</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2432</v>
-      </c>
-      <c r="G26" t="n">
-        <v>2434</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>mSec</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>107.0000231266022</v>
-      </c>
-      <c r="E27" t="n">
-        <v>107.0000231266022</v>
-      </c>
-      <c r="F27" t="n">
-        <v>107.0000231266022</v>
-      </c>
-      <c r="G27" t="n">
-        <v>107.0000231266022</v>
-      </c>
-      <c r="H27" t="n">
-        <v>107.9995650798082</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Comp</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Cells</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Adjusted</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>55</v>
-      </c>
-      <c r="E28" t="n">
-        <v>65</v>
-      </c>
-      <c r="F28" t="n">
-        <v>56</v>
-      </c>
-      <c r="G28" t="n">
-        <v>58</v>
-      </c>
-      <c r="H28" t="n">
         <v>60</v>
       </c>
     </row>
